--- a/tax6.xlsx
+++ b/tax6.xlsx
@@ -29265,7 +29265,7 @@
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>uncultured</t>
+          <t>Armatimonadetes_uncultured</t>
         </is>
       </c>
       <c r="B473" t="n">
